--- a/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO_REC140.xlsx
+++ b/fuentes/contenidos/grado06/guion08/SolicitudGrafica_CN_06_08_CO_REC140.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\Sofía CN_06_08_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="35025" windowHeight="17235" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="6380" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
   <si>
     <t>Fecha:</t>
   </si>
@@ -581,6 +576,9 @@
       </rPr>
       <t xml:space="preserve">  http://upload.wikimedia.org/wikipedia/commons/4/40/Corales_y_Morena_Juan_Fern%C3%A1ndez.jpg?uselang=es</t>
     </r>
+  </si>
+  <si>
+    <t>CREDITO: Por J.fernandez.chile (Trabajo propio) [CC BY-SA 3.0 (http://creativecommons.org/licenses/by-sa/3.0)], undefined</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1338,8 +1336,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1567,6 +1568,9 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,11 +1669,14 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="55">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1721,6 +1728,9 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1809,13 +1819,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1828,7 +1838,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1836,20 +1846,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1862,15 +1858,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1883,7 +1879,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1891,20 +1887,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1919,13 +1901,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1938,7 +1920,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1946,20 +1928,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1974,13 +1942,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1993,7 +1961,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2001,20 +1969,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2027,13 +1981,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2048,7 +2002,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2056,20 +2010,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2082,13 +2022,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1057275</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2103,7 +2043,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2111,20 +2051,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2137,7 +2063,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2158,7 +2084,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2166,20 +2092,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2512,31 +2424,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="2"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2548,49 +2460,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="F2" s="85" t="s">
+      <c r="D2" s="94"/>
+      <c r="F2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="87"/>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="95">
         <v>6</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="F3" s="87">
+      <c r="D3" s="96"/>
+      <c r="F3" s="88">
         <v>42119</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="5"/>
       <c r="F4" s="44" t="s">
         <v>55</v>
@@ -2603,15 +2515,15 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5"/>
       <c r="F5" s="42" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2625,7 +2537,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2638,7 +2550,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="29" t="s">
         <v>40</v>
@@ -2656,18 +2568,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2675,7 +2587,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.25" thickBot="1">
       <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
@@ -2710,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="69" t="s">
         <v>149</v>
       </c>
@@ -2745,7 +2657,7 @@
       <c r="J10" s="80"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>150</v>
       </c>
@@ -2762,7 +2674,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F17" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F11:F15" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_06_08_CO_REC140_F02.jpg</v>
       </c>
       <c r="G11" s="14" t="str">
@@ -2770,7 +2682,7 @@
         <v>800 x 460 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H16" si="1">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H11:H15" si="1">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I11" s="14" t="str">
@@ -2780,7 +2692,7 @@
       <c r="J11" s="74"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>151</v>
       </c>
@@ -2815,7 +2727,7 @@
       <c r="J12" s="74"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>152</v>
       </c>
@@ -2850,7 +2762,7 @@
       <c r="J13" s="75"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>153</v>
       </c>
@@ -2885,7 +2797,7 @@
       <c r="J14" s="74"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>154</v>
       </c>
@@ -2920,7 +2832,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="57.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>155</v>
       </c>
@@ -2937,7 +2849,7 @@
         <v>146</v>
       </c>
       <c r="F16" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_06_08_CO_REC140_F07.jpg</v>
       </c>
       <c r="G16" s="14" t="str">
@@ -2945,19 +2857,19 @@
         <v>800 x 460 px</v>
       </c>
       <c r="H16" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118" t="s">
+      <c r="J16" s="85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="85"/>
+    </row>
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="45" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>157</v>
       </c>
@@ -2974,7 +2886,7 @@
         <v>146</v>
       </c>
       <c r="F17" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_06_08_CO_REC140_F08.jpg</v>
       </c>
       <c r="G17" s="14" t="str">
@@ -2983,12 +2895,15 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118" t="s">
+      <c r="J17" s="85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="119"/>
+    </row>
+    <row r="18" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="81"/>
       <c r="C18" s="71"/>
@@ -3001,7 +2916,7 @@
       <c r="J18" s="77"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="81"/>
       <c r="C19" s="71"/>
@@ -3014,7 +2929,7 @@
       <c r="J19" s="76"/>
       <c r="K19" s="79"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="72"/>
       <c r="C20" s="71"/>
@@ -3027,7 +2942,7 @@
       <c r="J20" s="74"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="81"/>
       <c r="C21" s="71"/>
@@ -3040,7 +2955,7 @@
       <c r="J21" s="77"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="72"/>
       <c r="C22" s="71"/>
@@ -3053,7 +2968,7 @@
       <c r="J22" s="78"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="72"/>
       <c r="C23" s="71"/>
@@ -3066,7 +2981,7 @@
       <c r="J23" s="74"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="81"/>
       <c r="C24" s="71"/>
@@ -3079,7 +2994,7 @@
       <c r="J24" s="71"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="73"/>
       <c r="C25" s="71"/>
@@ -3092,7 +3007,7 @@
       <c r="J25" s="71"/>
       <c r="K25" s="74"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="73"/>
       <c r="C26" s="71"/>
@@ -3105,7 +3020,7 @@
       <c r="J26" s="71"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3118,7 +3033,7 @@
       <c r="J27" s="74"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3131,7 +3046,7 @@
       <c r="J28" s="74"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="69"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3144,7 +3059,7 @@
       <c r="J29" s="74"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="69"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3157,7 +3072,7 @@
       <c r="J30" s="74"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="69"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3170,7 +3085,7 @@
       <c r="J31" s="74"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="69"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3183,7 +3098,7 @@
       <c r="J32" s="74"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="69"/>
       <c r="B33" s="82"/>
       <c r="C33" s="25"/>
@@ -3196,7 +3111,7 @@
       <c r="J33" s="74"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3209,7 +3124,7 @@
       <c r="J34" s="74"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="69"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3222,7 +3137,7 @@
       <c r="J35" s="71"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="69"/>
       <c r="B36" s="82"/>
       <c r="C36" s="25"/>
@@ -3235,7 +3150,7 @@
       <c r="J36" s="71"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="69"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3248,7 +3163,7 @@
       <c r="J37" s="83"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="69"/>
       <c r="B38" s="82"/>
       <c r="C38" s="25"/>
@@ -3261,7 +3176,7 @@
       <c r="J38" s="43"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="69"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3274,7 +3189,7 @@
       <c r="J39" s="71"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="69"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3287,7 +3202,7 @@
       <c r="J40" s="71"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="69"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3300,7 +3215,7 @@
       <c r="J41" s="71"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="69"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3313,7 +3228,7 @@
       <c r="J42" s="71"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="69"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3326,7 +3241,7 @@
       <c r="J43" s="71"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="69"/>
       <c r="B44" s="82"/>
       <c r="C44" s="25"/>
@@ -3339,7 +3254,7 @@
       <c r="J44" s="71"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="69"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3352,7 +3267,7 @@
       <c r="J45" s="71"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="45.75" customHeight="1">
       <c r="A46" s="69"/>
       <c r="B46" s="69"/>
       <c r="C46" s="25"/>
@@ -3365,7 +3280,7 @@
       <c r="J46" s="71"/>
       <c r="K46" s="74"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="44.25" customHeight="1">
       <c r="A47" s="69"/>
       <c r="B47" s="69"/>
       <c r="C47" s="25"/>
@@ -3378,7 +3293,7 @@
       <c r="J47" s="71"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="69"/>
       <c r="B48" s="13"/>
       <c r="C48" s="25"/>
@@ -3391,7 +3306,7 @@
       <c r="J48" s="71"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="69"/>
       <c r="B49" s="84"/>
       <c r="C49" s="25"/>
@@ -3404,7 +3319,7 @@
       <c r="J49" s="71"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="25"/>
@@ -3417,7 +3332,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="25"/>
@@ -3430,7 +3345,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="25"/>
@@ -3443,7 +3358,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="25"/>
@@ -3456,7 +3371,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="25"/>
@@ -3469,7 +3384,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="25"/>
@@ -3482,7 +3397,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="25"/>
@@ -3495,7 +3410,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="25"/>
@@ -3508,7 +3423,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="25"/>
@@ -3521,7 +3436,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="25"/>
@@ -3534,7 +3449,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="25"/>
@@ -3547,7 +3462,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="25"/>
@@ -3560,7 +3475,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="25"/>
@@ -3573,7 +3488,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="25"/>
@@ -3586,7 +3501,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="25"/>
@@ -3599,7 +3514,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="25"/>
@@ -3612,7 +3527,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="25"/>
@@ -3625,7 +3540,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="25"/>
@@ -3638,7 +3553,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="25"/>
@@ -3651,7 +3566,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="25"/>
@@ -3664,7 +3579,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="25"/>
@@ -3677,7 +3592,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="25"/>
@@ -3690,7 +3605,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="25"/>
@@ -3703,7 +3618,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="25"/>
@@ -3716,7 +3631,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="25"/>
@@ -3729,7 +3644,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="25"/>
@@ -3742,7 +3657,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="25"/>
@@ -3755,7 +3670,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="25"/>
@@ -3768,7 +3683,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="25"/>
@@ -3781,7 +3696,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="25"/>
@@ -3794,7 +3709,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="25"/>
@@ -3807,7 +3722,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="25"/>
@@ -3820,7 +3735,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="25"/>
@@ -3833,7 +3748,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="25"/>
@@ -3846,7 +3761,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="25"/>
@@ -3859,7 +3774,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="25"/>
@@ -3872,7 +3787,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="25"/>
@@ -3885,7 +3800,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="25"/>
@@ -3898,7 +3813,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="25"/>
@@ -3911,7 +3826,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="25"/>
@@ -3924,7 +3839,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="25"/>
@@ -3937,7 +3852,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="25"/>
@@ -3950,7 +3865,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="25"/>
@@ -3963,7 +3878,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="25"/>
@@ -3976,7 +3891,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="25"/>
@@ -3989,7 +3904,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="25"/>
@@ -4002,7 +3917,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="25"/>
@@ -4015,7 +3930,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="25"/>
@@ -4028,7 +3943,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="25"/>
@@ -4041,7 +3956,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="25"/>
@@ -4054,7 +3969,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="25"/>
@@ -4067,7 +3982,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="25"/>
@@ -4080,7 +3995,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A102" s="13" t="str">
         <f t="shared" ref="A102:A108" si="2">IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),CONCATENATE(LEFT(A101,3),IF(MID(A101,4,2)+1&lt;10,CONCATENATE("0",MID(A101,4,2)+1),MID(A101,4,2)+1)),"")</f>
         <v/>
@@ -4111,7 +4026,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A103" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4142,7 +4057,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A104" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4173,7 +4088,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A105" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4204,7 +4119,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A106" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4235,7 +4150,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A107" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4266,7 +4181,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A108" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4348,7 +4263,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4359,56 +4274,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="27"/>
-    <col min="3" max="3" width="13.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="27" customWidth="1"/>
-    <col min="5" max="7" width="10.875" style="27"/>
+    <col min="1" max="1" width="72.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="27"/>
+    <col min="3" max="3" width="13.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="27" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="27"/>
     <col min="8" max="11" width="11" style="27" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="27"/>
+    <col min="12" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="36"/>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="37"/>
       <c r="H3" s="27" t="s">
         <v>18</v>
@@ -4423,7 +4338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
@@ -4451,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>45</v>
       </c>
@@ -4459,11 +4374,11 @@
       <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="str">
+      <c r="D5" s="115" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="37"/>
       <c r="H5" s="27" t="s">
         <v>22</v>
@@ -4478,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
@@ -4500,7 +4415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
@@ -4508,12 +4423,12 @@
       <c r="C7" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="100" t="str">
+      <c r="D7" s="101" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="27" t="s">
         <v>24</v>
       </c>
@@ -4527,7 +4442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="38" t="s">
         <v>53</v>
       </c>
@@ -4546,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
@@ -4565,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
@@ -4584,7 +4499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="27" t="s">
         <v>32</v>
       </c>
@@ -4595,7 +4510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="27" t="s">
         <v>37</v>
       </c>
@@ -4606,15 +4521,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
       <c r="I13" s="27" t="s">
         <v>33</v>
       </c>
@@ -4625,7 +4540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="38"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -4642,17 +4557,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="36"/>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
       <c r="J15" s="27">
         <v>12</v>
       </c>
@@ -4660,7 +4575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>47</v>
       </c>
@@ -4684,7 +4599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A17" s="35" t="s">
         <v>44</v>
       </c>
@@ -4692,12 +4607,12 @@
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="108" t="str">
+      <c r="D17" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="J17" s="27">
         <v>14</v>
       </c>
@@ -4705,7 +4620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="38" t="s">
         <v>48</v>
       </c>
@@ -4713,12 +4628,12 @@
       <c r="C18" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="100" t="str">
+      <c r="D18" s="101" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
       <c r="J18" s="27">
         <v>15</v>
       </c>
@@ -4726,7 +4641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
@@ -4745,7 +4660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
@@ -4767,7 +4682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="27" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -4784,122 +4699,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="27">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="27">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="27">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="27">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="27">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="27">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="27">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="27">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="27">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="27">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="27">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="27">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="27">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="27">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="27">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="27">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="27">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="27" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -4933,18 +4848,19 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -4953,20 +4869,21 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -4977,18 +4894,19 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -4999,18 +4917,19 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -5019,13 +4938,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -5033,6 +4952,7 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -5041,13 +4961,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1057275</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -5055,6 +4975,7 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -5063,7 +4984,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5077,9 +4998,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5098,58 +5021,58 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="27"/>
-    <col min="5" max="5" width="11.625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="27"/>
+    <col min="5" max="5" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="27" customWidth="1"/>
     <col min="7" max="7" width="11" style="27" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="27" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="27"/>
+    <col min="12" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="46" t="s">
         <v>65</v>
       </c>
@@ -5160,7 +5083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="48" customFormat="1">
       <c r="A3" s="47" t="s">
         <v>69</v>
       </c>
@@ -5184,7 +5107,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="48" customFormat="1">
       <c r="A4" s="49" t="s">
         <v>57</v>
       </c>
@@ -5212,7 +5135,7 @@
       </c>
       <c r="J4" s="49"/>
     </row>
-    <row r="5" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="48" customFormat="1">
       <c r="A5" s="50" t="s">
         <v>77</v>
       </c>
@@ -5240,7 +5163,7 @@
       </c>
       <c r="J5" s="51"/>
     </row>
-    <row r="6" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="48" customFormat="1">
       <c r="A6" s="49" t="s">
         <v>58</v>
       </c>
@@ -5272,7 +5195,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="48" customFormat="1" ht="25.5">
       <c r="A7" s="49" t="s">
         <v>80</v>
       </c>
@@ -5300,7 +5223,7 @@
       </c>
       <c r="J7" s="49"/>
     </row>
-    <row r="8" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="48" customFormat="1" ht="25.5">
       <c r="A8" s="49" t="s">
         <v>82</v>
       </c>
@@ -5328,7 +5251,7 @@
       </c>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="48" customFormat="1">
       <c r="A9" s="49" t="s">
         <v>84</v>
       </c>
@@ -5356,7 +5279,7 @@
       </c>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="48" customFormat="1">
       <c r="A10" s="49" t="s">
         <v>86</v>
       </c>
@@ -5382,7 +5305,7 @@
       </c>
       <c r="J10" s="49"/>
     </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="25.5">
       <c r="A11" s="49" t="s">
         <v>89</v>
       </c>
@@ -5410,7 +5333,7 @@
       </c>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="48" customFormat="1">
       <c r="A12" s="49" t="s">
         <v>91</v>
       </c>
@@ -5438,7 +5361,7 @@
       </c>
       <c r="J12" s="49"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="52" t="s">
         <v>93</v>
       </c>
@@ -5465,7 +5388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="52" t="s">
         <v>97</v>
       </c>
@@ -5489,7 +5412,7 @@
       </c>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="52" t="s">
         <v>99</v>
       </c>
@@ -5516,7 +5439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="54" t="s">
         <v>103</v>
       </c>
@@ -5545,7 +5468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="49" t="s">
         <v>106</v>
       </c>
@@ -5574,12 +5497,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="58" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="59" t="s">
         <v>113</v>
       </c>
@@ -5592,7 +5515,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="62" t="s">
         <v>114</v>
       </c>
@@ -5605,7 +5528,7 @@
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="62" t="s">
         <v>115</v>
       </c>
@@ -5618,7 +5541,7 @@
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="62" t="s">
         <v>116</v>
       </c>
@@ -5631,7 +5554,7 @@
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="62" t="s">
         <v>117</v>
       </c>
@@ -5644,7 +5567,7 @@
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="62" t="s">
         <v>118</v>
       </c>
